--- a/SOLID(UPDATED).xlsx
+++ b/SOLID(UPDATED).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakub\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakub\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF14CCA-2143-4D8A-A311-CF73B77843D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C64A0D-AA8F-4883-83A1-AC64D6F7CCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5A8E0C34-FB69-4265-B897-0E9802430FE2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5A8E0C34-FB69-4265-B897-0E9802430FE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
   <si>
     <t>class Secretary</t>
   </si>
@@ -177,6 +177,93 @@
   </si>
   <si>
     <t>nie spełnia ze względu na brak dodatkowej warstwy pośredniej, która dostarczałaby dodatkową abstrakcję.</t>
+  </si>
+  <si>
+    <t>nie spełnia, ponieważ wykonuje więcej niż jedną czynność</t>
+  </si>
+  <si>
+    <t>spełnia, ponieważ po dodaniu nowych funkcji nie będzie wymagana refaktoryzacja poprzednich</t>
+  </si>
+  <si>
+    <t>spełnia, bo na razie nie posiada żadnych klas pochodnych ani nie dziedziczy</t>
+  </si>
+  <si>
+    <t>nie spełnia, bo  klasa nie korzysta z interfejsów, co oznacza, że ​​nie ma konieczności implementowania wszystkich metod interfejsu.</t>
+  </si>
+  <si>
+    <t>nie spełnia, ponieważ silnie zależy od konkretnego źródła danych (pliku). Zasada ta zachęcałaby do zastosowania zasady wstrzykiwania zależności dla elastyczności.</t>
+  </si>
+  <si>
+    <t>SOLID</t>
+  </si>
+  <si>
+    <t>nie spełnia, ponieważ nie posiada informacji na temat obsługi danych, więc nie spełnia zasady Information Expert.</t>
+  </si>
+  <si>
+    <t>nie spełnia, ponieważ  tworzy instancje klasy Date, co może być rozważane jako łamanie zasady Creator. Klasa Date mogłaby być tworzona poza klasą Secretary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nie spełnia, ponieważ jest silnie skoncentrowana na plikach i operacjach wejścia/wyjścia, co zwiększa zależność od konkretnych implementacji. </t>
+  </si>
+  <si>
+    <t>spełnia, ponieważ pełni funkcję kontrolera, zarządzając interakcjami i logiką pomiędzy użytkownikiem a systemem.</t>
+  </si>
+  <si>
+    <t>nie spełnia, ponieważ klasa łączy w sobie zadania obsługi wejścia, rezerwacji i operacji plikowych. Rozdzielenie tych zadań zwiększyłoby spójność klasy.</t>
+  </si>
+  <si>
+    <t>nie spełnia, ponieważ nie wykorzystuje polimorfizmu.</t>
+  </si>
+  <si>
+    <t>spełnia, nie jest fikcyjną klasą bez odpowiedzialności; jednak, w kontekście innych zasad, mogłoby być lepiej zorganizować kod.</t>
+  </si>
+  <si>
+    <t>spełnia, obsługuje pośredniczenie pomiędzy użytkownikiem a operacjami rezerwacji i plików, co może być postrzegane jako zastosowanie zasady indirection.</t>
+  </si>
+  <si>
+    <t>nie spełnia, nie posiada mechanizmów ochrony przed zmianami w implementacji plików czy rezerwacji, co mogłoby być pomocne w przypadku zmian tych implementacji.</t>
+  </si>
+  <si>
+    <t>spełnia, zajmuje się głównie operacjami na plikach i walidacją danych, co jest spójne z zasadą jednej odpowiedzialności.</t>
+  </si>
+  <si>
+    <t>nie spełnia w pełni, mimo że klasa nie wymaga modyfikacji przy dodawaniu nowych funkcji, nie jest również łatwo rozszerzalna, ponieważ jest bezpośrednio związana z konkretnym plikiem CSV.</t>
+  </si>
+  <si>
+    <t>spełnia, nie dziedziczy po innych klasach ani nie ma klas pochodnych, więc nie występuje tutaj naruszenie zasady.</t>
+  </si>
+  <si>
+    <t>nie spełnia, nie korzysta z interfejsów, co mogłoby być pomocne w przypadku rozwoju systemu i organizacji kodu.</t>
+  </si>
+  <si>
+    <t>nie spełnia w pełni, jest bezpośrednio związana z konkretnym plikiem CSV, co może wprowadzać pewne ograniczenia w kontekście elastyczności.</t>
+  </si>
+  <si>
+    <t>spełnia, posiada informacje na temat obsługi danych, co jest zgodne z zasadą Information Expert.</t>
+  </si>
+  <si>
+    <t>nie spełnia, tworzy instancje klas pomocniczych (split), co można by było rozważyć jako łamanie zasady Creator.</t>
+  </si>
+  <si>
+    <t>nie spełnia, nie pełni roli kontrolera; zajmuje się bardziej operacjami na danych niż zarządzaniem przepływem sterowania.</t>
+  </si>
+  <si>
+    <t>nie spełnia w pełni, jest bezpośrednio związana z konkretnym plikiem, co może utrudniać elastyczność w przypadku zmiany źródła danych.</t>
+  </si>
+  <si>
+    <t>spełnia, skupia się głównie na operacjach plikowych i walidacji danych, co sprawia, że jest spójna w kontekście jednego zadania.</t>
+  </si>
+  <si>
+    <t>nie spełnia, nie wykorzystuje polimorfizmu.</t>
+  </si>
+  <si>
+    <t>nie spełnia, nie jest fikcyjną klasą bez odpowiedzialności, ale w kontekście innych zasad mogłoby być lepiej zorganizować kod.</t>
+  </si>
+  <si>
+    <t>spełnia, pośredniczy pomiędzy aplikacją a operacjami plikowymi, co może być postrzegane jako zastosowanie zasady indirection.</t>
+  </si>
+  <si>
+    <t>nie spełnia, nie posiada mechanizmów ochrony przed zmianami w implementacji plików, co mogłoby być pomocne w przypadku zmiany tych implementacji.</t>
   </si>
 </sst>
 </file>
@@ -216,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -232,9 +319,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -272,7 +359,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -378,7 +465,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -530,22 +617,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752BD311-68D7-4020-A782-8CF6F47BA8A3}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="140.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="117.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="159.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="119.6640625" customWidth="1"/>
     <col min="7" max="7" width="102.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -579,7 +669,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -593,7 +683,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -602,7 +692,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -616,7 +706,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -625,7 +715,7 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -639,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -648,7 +738,7 @@
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -662,7 +752,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -671,7 +761,7 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -690,7 +780,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -699,7 +789,7 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
         <v>30</v>
@@ -713,7 +803,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -722,7 +812,7 @@
         <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
@@ -736,7 +826,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -745,7 +835,7 @@
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
         <v>36</v>
@@ -759,7 +849,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -768,7 +858,7 @@
         <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
         <v>38</v>
@@ -782,7 +872,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -791,7 +881,7 @@
         <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
         <v>41</v>
@@ -805,7 +895,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -814,7 +904,7 @@
         <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
         <v>43</v>
@@ -828,7 +918,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -837,7 +927,7 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
         <v>44</v>
@@ -851,7 +941,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -860,7 +950,7 @@
         <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
         <v>46</v>
@@ -874,7 +964,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -883,7 +973,7 @@
         <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
         <v>45</v>

--- a/SOLID(UPDATED).xlsx
+++ b/SOLID(UPDATED).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakub\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alok11\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C64A0D-AA8F-4883-83A1-AC64D6F7CCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6A43A9-8C8F-4A3E-8F08-67A6874105BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5A8E0C34-FB69-4265-B897-0E9802430FE2}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="28800" windowHeight="15885" xr2:uid="{5A8E0C34-FB69-4265-B897-0E9802430FE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
   <si>
     <t>class Secretary</t>
   </si>
@@ -56,12 +56,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>nie spełnia</t>
-  </si>
-  <si>
-    <t>spełnia</t>
-  </si>
-  <si>
     <t>class User</t>
   </si>
   <si>
@@ -264,6 +258,48 @@
   </si>
   <si>
     <t>nie spełnia, nie posiada mechanizmów ochrony przed zmianami w implementacji plików, co mogłoby być pomocne w przypadku zmiany tych implementacji.</t>
+  </si>
+  <si>
+    <t>Spełnia - Klasa Uzytkownik ma jedną odpowiedzialność - zarządzanie stanem zalogowania użytkownika.</t>
+  </si>
+  <si>
+    <t>Spełnia - Klasa jest otwarta na rozszerzenia (możemy dodać więcej metod), ale zamknięta na modyfikacje (istniejące metody nie muszą być modyfikowane).</t>
+  </si>
+  <si>
+    <t>Nie dotyczy - Nie ma dziedziczenia w tej klasie.</t>
+  </si>
+  <si>
+    <t>Nie dotyczy - Klasa nie implementuje żadnych interfejsów.</t>
+  </si>
+  <si>
+    <t>Spełnia - Klasa nie zależy od żadnych innych klas ani szczegółów.</t>
+  </si>
+  <si>
+    <t>Spełnia - Klasa Uzytkownik jest ekspertem w zakresie informacji o stanie zalogowania.</t>
+  </si>
+  <si>
+    <t> Spełnia - Klasa Uzytkownik tworzy i zarządza własnym stanem.</t>
+  </si>
+  <si>
+    <t>Nie dotyczy - Nie ma tu żadnej logiki biznesowej ani interakcji z innymi klasami.</t>
+  </si>
+  <si>
+    <t>Spełnia - Klasa Uzytkownik jest nisko sprzężona, ponieważ nie zależy od innych klas.</t>
+  </si>
+  <si>
+    <t>Spełnia - Klasa Uzytkownik ma wysoką spójność, ponieważ wszystkie jej metody i atrybuty są ściśle powiązane ze sobą.</t>
+  </si>
+  <si>
+    <t>Nie dotyczy - Nie ma tu żadnego dziedziczenia ani przeciążania metod.</t>
+  </si>
+  <si>
+    <t>Nie dotyczy - Klasa Uzytkownik wydaje się być częścią rzeczywistego modelu domeny.</t>
+  </si>
+  <si>
+    <t>Nie dotyczy - Nie ma tu żadnej warstwy pośredniczącej.</t>
+  </si>
+  <si>
+    <t>Spełnia - Klasa Uzytkownik jest chroniona przed zmianami, ponieważ jej stan jest prywatny i może być zmieniony tylko za pomocą określonych metod.</t>
   </si>
 </sst>
 </file>
@@ -303,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -319,9 +355,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -359,7 +395,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -465,7 +501,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -617,369 +653,369 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752BD311-68D7-4020-A782-8CF6F47BA8A3}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="140.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="117.109375" customWidth="1"/>
-    <col min="5" max="5" width="159.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="119.6640625" customWidth="1"/>
-    <col min="7" max="7" width="102.44140625" customWidth="1"/>
+    <col min="2" max="2" width="140.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="148.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="117.140625" customWidth="1"/>
+    <col min="5" max="5" width="159.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="119.7109375" customWidth="1"/>
+    <col min="7" max="7" width="102.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>51</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
         <v>66</v>
       </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
         <v>53</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
         <v>68</v>
       </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
         <v>56</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
         <v>70</v>
       </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>57</v>
       </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
         <v>42</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E14" t="s">
         <v>71</v>
       </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>58</v>
       </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
         <v>43</v>
       </c>
-      <c r="E13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" t="s">
         <v>43</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G16" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
